--- a/XlsxToLua/bin/Debug/TestExcel/Prop.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/Prop.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>道具ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemName1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,28 +121,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>itemName2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中号经验药水</t>
   </si>
   <si>
     <t>使用增加英雄经验200点</t>
   </si>
   <si>
-    <t>itemDesc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemDesc2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>item1</t>
   </si>
   <si>
     <t>item1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notEmpty</t>
+  </si>
+  <si>
+    <t>lang(itemDesc{id})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName200001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName200002</t>
+  </si>
+  <si>
+    <t>itemName200003</t>
+  </si>
+  <si>
+    <t>itemName200004</t>
+  </si>
+  <si>
+    <t>itemName200005</t>
+  </si>
+  <si>
+    <t>itemName200006</t>
+  </si>
+  <si>
+    <t>itemName200007</t>
+  </si>
+  <si>
+    <t>itemName200008</t>
+  </si>
+  <si>
+    <t>盾牌</t>
+  </si>
+  <si>
+    <t>弓箭</t>
+  </si>
+  <si>
+    <t>长矛</t>
+  </si>
+  <si>
+    <t>护甲</t>
+  </si>
+  <si>
+    <t>头盔</t>
+  </si>
+  <si>
+    <t>匕首</t>
+  </si>
+  <si>
+    <t>禅杖</t>
+  </si>
+  <si>
+    <t>大刀</t>
+  </si>
+  <si>
+    <t>itemName100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName100002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +654,7 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -616,10 +664,10 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="22.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
     <col min="10" max="10" width="11.875" customWidth="1"/>
@@ -630,31 +678,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -662,27 +710,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -695,43 +743,46 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -740,22 +791,19 @@
         <v>-1</v>
       </c>
       <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J5">
         <v>500</v>
@@ -763,7 +811,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>2</v>
+        <v>100002</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -772,24 +820,253 @@
         <v>-1</v>
       </c>
       <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>200001</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="J6">
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>200002</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>200003</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>200004</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>200005</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>200006</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>200007</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>200008</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14">
         <v>800</v>
       </c>
     </row>

--- a/XlsxToLua/bin/Debug/TestExcel/Prop.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/Prop.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="config" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>道具ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,45 @@
   </si>
   <si>
     <t>itemName100002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportDatabaseTableName</t>
+  </si>
+  <si>
+    <t>id(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subType(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name(VARCHAR(20))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc(VARCHAR(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon(VARCHAR(20))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellPrice(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,8 +277,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -262,13 +307,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -277,6 +337,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,23 +720,24 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="22.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -780,38 +847,37 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>100001</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5">
-        <v>500</v>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -820,45 +886,45 @@
         <v>-1</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6">
-        <v>800</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>200001</v>
+        <v>100002</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
         <v>28</v>
@@ -869,7 +935,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>200002</v>
+        <v>200001</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -878,13 +944,13 @@
         <v>-1</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -898,7 +964,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>200003</v>
+        <v>200002</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -907,13 +973,13 @@
         <v>-1</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -927,7 +993,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>200004</v>
+        <v>200003</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -936,13 +1002,13 @@
         <v>-1</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -956,7 +1022,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>200005</v>
+        <v>200004</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -965,13 +1031,13 @@
         <v>-1</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -985,7 +1051,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>200006</v>
+        <v>200005</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -994,13 +1060,13 @@
         <v>-1</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1014,7 +1080,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>200007</v>
+        <v>200006</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1023,13 +1089,13 @@
         <v>-1</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1043,7 +1109,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>200008</v>
+        <v>200007</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1052,13 +1118,13 @@
         <v>-1</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1067,6 +1133,35 @@
         <v>28</v>
       </c>
       <c r="J14">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>200008</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15">
         <v>800</v>
       </c>
     </row>
@@ -1079,12 +1174,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
